--- a/src/test/resources/xlsx/loopXlsxTemplate.xlsx
+++ b/src/test/resources/xlsx/loopXlsxTemplate.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Sheet {{stringName}} ABC" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet {{stringName}} ABC'!$A$7:$B$7</definedName>
-  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
@@ -22,49 +19,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>{[customers|customer]}</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>{[]}</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>{[customers|customer]}{[]}</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +34,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -93,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -123,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B19" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0" shapeId="0">
+    <comment ref="A10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="0" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,19 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
-  <si>
-    <t>Jebt supports single properties.</t>
-  </si>
-  <si>
-    <t>Hello {{stringName}}!</t>
-  </si>
-  <si>
-    <t>We also support iterating over arrays.</t>
-  </si>
-  <si>
-    <t>{{customer.name}}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Friend Name: {{friend.name}}</t>
   </si>
@@ -195,21 +138,9 @@
     <t>Customer: {{customer.name}}</t>
   </si>
   <si>
-    <t>Loops will go to next row after every record:</t>
-  </si>
-  <si>
     <t>{{customer.country}}</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>You can also have nested loops, but in that case, inner loops cells will be inserted on the same row:</t>
-  </si>
-  <si>
     <t>Name: {{customer.name}}</t>
   </si>
   <si>
@@ -222,37 +153,6 @@
     <t>List of Friends:</t>
   </si>
   <si>
-    <t>Or only one cell per row.</t>
-  </si>
-  <si>
-    <t>Note that cell formatting will be copied over in loops.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">You can iterate over multiple cells on a Row. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>You cannot use Tables</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, but you can use a Filter as long as the cells with the filters are inserted before any Loop (so they won't move once template is filled)</t>
-    </r>
-  </si>
-  <si>
     <t>You can also have loops as text in a cell, but such loops must be opened and closed in the same cell's text.</t>
   </si>
   <si>
@@ -260,13 +160,16 @@
   </si>
   <si>
     <t xml:space="preserve">This is the list of aliases for '{{customer.name}}': </t>
+  </si>
+  <si>
+    <t>You can have nested loops, but in that case, inner loops cells will be inserted on the same row:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,23 +230,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,30 +246,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor theme="6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -415,74 +285,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </left>
-      <right style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="6" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,11 +602,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -801,127 +614,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A7:B7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
